--- a/location.xlsx
+++ b/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anantawasthy/Documents/NodeWorkspace/rjlt-quiz-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B6FB3D-42DA-E546-B493-BD696C09A6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697F48B-2356-4242-A4D5-6C947F88F28B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19900" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="307">
   <si>
     <t>A017</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Croma - High Street Phoenix</t>
   </si>
 </sst>
 </file>
@@ -1311,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2513,11 +2516,13 @@
         <v>73.167097999999996</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="D87" s="2">
         <v>18.994821000000002</v>
       </c>
